--- a/baseline_cost_model_inputs/unit_costs_hazira.xlsx
+++ b/baseline_cost_model_inputs/unit_costs_hazira.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucymalmud/Desktop/hazira-port/baseline_cost_model_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C54EE46-7108-4B4A-9B80-DE8E79C97667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8A499F-5830-C743-BEA2-17F83DE9968E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13460" yWindow="940" windowWidth="14960" windowHeight="15620" xr2:uid="{709AB9EF-2CF7-AB4C-8B18-A6E4D7953D04}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>num entries</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>energy</t>
+  </si>
+  <si>
+    <t>in lakh (converted from rupee)</t>
   </si>
 </sst>
 </file>
@@ -466,17 +469,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878856B2-A6CE-CF48-8D0A-DDE437709176}">
-  <dimension ref="B1:E6"/>
+  <dimension ref="B1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.1640625" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
     <col min="5" max="5" width="34.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.1640625" customWidth="1"/>
   </cols>
@@ -503,7 +506,8 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>5100</v>
+        <f>5100/10000</f>
+        <v>0.51</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -517,7 +521,8 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>3600</v>
+        <f>3600/100000</f>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -531,7 +536,8 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>550</v>
+        <f>550/100000</f>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -545,7 +551,8 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>380</v>
+        <f>380/100000</f>
+        <v>3.8E-3</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -559,10 +566,16 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>7.8</v>
+        <f>7.8/100000</f>
+        <v>7.7999999999999999E-5</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
